--- a/SE/Project 3/Project Log.xlsx
+++ b/SE/Project 3/Project Log.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gstroe\Documents\School\SE\Project 3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project Info" sheetId="7" r:id="rId1"/>
@@ -32,7 +27,7 @@
     <definedName name="ReqTyp">Menu!$C$60:$C$66</definedName>
     <definedName name="TestTyp">Menu!$C$89:$C$93</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -42,7 +37,7 @@
     <author>Ben</author>
   </authors>
   <commentList>
-    <comment ref="B1000" authorId="0" shapeId="0">
+    <comment ref="B1000" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="308">
   <si>
     <t>Date:</t>
   </si>
@@ -1468,24 +1463,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Functions where not being counted</t>
-  </si>
-  <si>
-    <t>Th issue was that the file was read through to count the total lines in the code, that same buffer was passed to the function counter. That buffer was at the end of the file so it had no more code left to send to the function counters. Thus by reloading the file we can fix that issue.</t>
-  </si>
-  <si>
-    <t>The first line of the code would not be counted in the function counters</t>
-  </si>
-  <si>
-    <t>The issue is that part of code that pushed the first line of the function to a string came after a new line was read when scanning the function</t>
-  </si>
-  <si>
-    <t>Did not consider that the signifiers for a function could be inside of a comment block</t>
-  </si>
-  <si>
-    <t>During the design portion of of this program, I had not considered that the parenthesis could be inside of a comment and should not get pushed to the countLOC function for counting.</t>
-  </si>
-  <si>
     <t>Added countFuncLOC to count the number of lines in a specific function. It separate the function test and then passes it to countLOC</t>
   </si>
   <si>
@@ -1501,13 +1478,6 @@
     <t>Added in the functionality to filter through comments in the countFuncLOC function.</t>
   </si>
   <si>
-    <t>It would count unintentional brackets 
-in " "  and ' '</t>
-  </si>
-  <si>
-    <t>I found this issue when counting my own lines of code. The issue was that If you had the brackets inside of a " "  or  ' ' then the program would count it and then miscount when trying to go out. The function ussally just never got to its total and just showed 0 lines total</t>
-  </si>
-  <si>
     <t>Tic Tac Toe</t>
   </si>
   <si>
@@ -1539,6 +1509,42 @@
   </si>
   <si>
     <t>High Level Design</t>
+  </si>
+  <si>
+    <t>Design UI Layout For Main Menu</t>
+  </si>
+  <si>
+    <t>Detail Functional Design for Main Menu</t>
+  </si>
+  <si>
+    <t>Code the Main Menu</t>
+  </si>
+  <si>
+    <t>Design UI for 2 Player Game</t>
+  </si>
+  <si>
+    <t>Detail Functional Design for 2 Player Game</t>
+  </si>
+  <si>
+    <t>Test Main Menu</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
+  </si>
+  <si>
+    <t>The Computer Was cut off. Not wide enough.</t>
+  </si>
+  <si>
+    <t>Code 2 Player Game</t>
+  </si>
+  <si>
+    <t>2 Player Game</t>
+  </si>
+  <si>
+    <t>Origianal Logic would only work if the user made his first 3 moves in a row</t>
+  </si>
+  <si>
+    <t>Test 2 Player Game</t>
   </si>
 </sst>
 </file>
@@ -2040,7 +2046,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2306,9 +2312,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2328,13 +2331,17 @@
     <xf numFmtId="2" fontId="8" fillId="13" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent2" xfId="6" builtinId="34"/>
@@ -2345,7 +2352,49 @@
     <cellStyle name="Title" xfId="2" builtinId="15"/>
     <cellStyle name="Total" xfId="5" builtinId="25"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2442,7 +2491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2477,7 +2526,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2692,35 +2741,35 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="68"/>
-    <col min="2" max="2" width="29.6640625" style="70" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" style="68" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="68" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="68"/>
+    <col min="2" max="2" width="29.7109375" style="70" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="68" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="68" customWidth="1"/>
     <col min="5" max="5" width="3" style="68" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="68" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="68"/>
+    <col min="6" max="6" width="32.7109375" style="68" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="22.9" x14ac:dyDescent="0.3">
       <c r="B1" s="75" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="22.9" x14ac:dyDescent="0.3">
       <c r="B3" s="67" t="s">
         <v>276</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="22.9" x14ac:dyDescent="0.3">
       <c r="B4" s="67"/>
       <c r="D4" s="72"/>
     </row>
-    <row r="5" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="22.9" x14ac:dyDescent="0.3">
       <c r="B5" s="67" t="s">
         <v>175</v>
       </c>
@@ -2728,7 +2777,7 @@
       <c r="F5" s="67"/>
       <c r="G5" s="69"/>
     </row>
-    <row r="6" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="22.9" x14ac:dyDescent="0.3">
       <c r="B6" s="71" t="s">
         <v>147</v>
       </c>
@@ -2738,13 +2787,13 @@
       <c r="E6" s="72"/>
       <c r="F6" s="72"/>
     </row>
-    <row r="7" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="22.9" x14ac:dyDescent="0.3">
       <c r="B7" s="71"/>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
       <c r="F7" s="72"/>
     </row>
-    <row r="8" spans="2:7" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="22.9" x14ac:dyDescent="0.3">
       <c r="B8" s="71"/>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
@@ -2764,25 +2813,25 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="2.109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="17" customWidth="1"/>
     <col min="4" max="4" width="28" style="17" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="80" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="17" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="17" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" style="17" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="17"/>
+    <col min="5" max="5" width="18.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="80" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="17" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" style="17" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="22.9" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
         <v>153</v>
       </c>
@@ -2791,14 +2840,14 @@
       <c r="D1" s="57"/>
       <c r="E1" s="58"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="57"/>
       <c r="E2" s="58"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>173</v>
       </c>
@@ -2810,12 +2859,12 @@
       <c r="D3" s="57"/>
       <c r="E3" s="58"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C4" s="60"/>
       <c r="D4" s="57"/>
       <c r="E4" s="58"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>174</v>
       </c>
@@ -2824,7 +2873,7 @@
       <c r="D5" s="57"/>
       <c r="E5" s="58"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="73" t="s">
         <v>148</v>
       </c>
@@ -2836,22 +2885,22 @@
       <c r="D6" s="57"/>
       <c r="E6" s="58"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="73"/>
       <c r="B7" s="73"/>
       <c r="C7" s="59"/>
       <c r="D7" s="57"/>
       <c r="E7" s="58"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="73"/>
       <c r="B8" s="73"/>
       <c r="C8" s="59"/>
       <c r="D8" s="57"/>
       <c r="E8" s="58"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D11" s="87"/>
       <c r="E11" s="61" t="s">
         <v>182</v>
@@ -2861,7 +2910,7 @@
       </c>
       <c r="G11" s="62"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D12" s="90"/>
       <c r="E12" s="88">
         <f>SUM(E17:E40)</f>
@@ -2873,7 +2922,7 @@
       </c>
       <c r="G12" s="91"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="63" t="s">
         <v>156</v>
       </c>
@@ -2886,7 +2935,7 @@
       <c r="G13" s="64"/>
       <c r="I13" s="86"/>
     </row>
-    <row r="16" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" s="21" t="s">
         <v>159</v>
       </c>
@@ -2910,7 +2959,7 @@
       <c r="P16" s="84"/>
       <c r="Q16" s="84"/>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C17" s="21" t="s">
         <v>88</v>
       </c>
@@ -2934,7 +2983,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C18" s="21"/>
       <c r="D18" s="17" t="s">
         <v>163</v>
@@ -2956,7 +3005,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C19" s="21" t="s">
         <v>164</v>
       </c>
@@ -2980,7 +3029,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C20" s="21"/>
       <c r="D20" s="17" t="s">
         <v>166</v>
@@ -3002,7 +3051,7 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="32"/>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C21" s="21" t="s">
         <v>167</v>
       </c>
@@ -3029,7 +3078,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D22" s="17" t="s">
         <v>170</v>
       </c>
@@ -3053,7 +3102,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="32"/>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E23" s="82"/>
       <c r="H23" s="80"/>
       <c r="I23" s="80"/>
@@ -3066,7 +3115,7 @@
       <c r="P23" s="32"/>
       <c r="Q23" s="32"/>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E24" s="82"/>
       <c r="H24" s="80"/>
       <c r="I24" s="80"/>
@@ -3079,7 +3128,7 @@
       <c r="P24" s="32"/>
       <c r="Q24" s="32"/>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E25" s="82"/>
       <c r="G25" s="81" t="s">
         <v>183</v>
@@ -3097,7 +3146,7 @@
       <c r="P25" s="32"/>
       <c r="Q25" s="32"/>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C26" s="21" t="s">
         <v>185</v>
       </c>
@@ -3130,9 +3179,9 @@
       </c>
       <c r="N26" s="32"/>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D27" s="17" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E27" s="65">
         <v>150</v>
@@ -3160,7 +3209,7 @@
       <c r="M27" s="104"/>
       <c r="N27" s="32"/>
     </row>
-    <row r="28" spans="3:17" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:17" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F28" s="83"/>
       <c r="G28" s="83"/>
       <c r="H28" s="83"/>
@@ -3170,9 +3219,9 @@
       <c r="L28" s="83"/>
       <c r="M28" s="83"/>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D29" s="17" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E29" s="65">
         <v>100</v>
@@ -3184,7 +3233,7 @@
       <c r="G29" s="104">
         <v>0.15</v>
       </c>
-      <c r="H29" s="116">
+      <c r="H29" s="115">
         <v>0.5</v>
       </c>
       <c r="I29" s="104">
@@ -3200,7 +3249,7 @@
       <c r="M29" s="104"/>
       <c r="N29" s="32"/>
     </row>
-    <row r="30" spans="3:17" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:17" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F30" s="83"/>
       <c r="G30" s="83"/>
       <c r="H30" s="83"/>
@@ -3210,9 +3259,9 @@
       <c r="L30" s="83"/>
       <c r="M30" s="83"/>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D31" s="17" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E31" s="65">
         <v>50</v>
@@ -3240,7 +3289,7 @@
       <c r="M31" s="104"/>
       <c r="N31" s="32"/>
     </row>
-    <row r="32" spans="3:17" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:17" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F32" s="83"/>
       <c r="G32" s="83"/>
       <c r="H32" s="83"/>
@@ -3250,9 +3299,9 @@
       <c r="L32" s="83"/>
       <c r="M32" s="83"/>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D33" s="17" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E33" s="65">
         <v>25</v>
@@ -3280,7 +3329,7 @@
       <c r="M33" s="104"/>
       <c r="N33" s="32"/>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="83"/>
@@ -3293,10 +3342,10 @@
       <c r="M34" s="83"/>
       <c r="N34" s="32"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C35" s="21"/>
       <c r="D35" s="17" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E35" s="65">
         <v>150</v>
@@ -3324,7 +3373,7 @@
       <c r="M35" s="104"/>
       <c r="N35" s="32"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C36" s="103"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
@@ -3338,9 +3387,9 @@
       <c r="M36" s="83"/>
       <c r="N36" s="32"/>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D37" s="17" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E37" s="65">
         <v>25</v>
@@ -3368,7 +3417,7 @@
       <c r="M37" s="104"/>
       <c r="N37" s="32"/>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
       <c r="G38" s="80"/>
@@ -3379,7 +3428,7 @@
       <c r="L38" s="83"/>
       <c r="M38" s="32"/>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C39" s="21" t="s">
         <v>172</v>
       </c>
@@ -3400,7 +3449,7 @@
       <c r="L39" s="83"/>
       <c r="M39" s="32"/>
     </row>
-    <row r="40" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:14" ht="28.9" x14ac:dyDescent="0.3">
       <c r="C40" s="103" t="s">
         <v>219</v>
       </c>
@@ -3418,7 +3467,7 @@
       <c r="L40" s="83"/>
       <c r="M40" s="32"/>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="L41" s="32"/>
       <c r="M41" s="32"/>
     </row>
@@ -3439,24 +3488,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="2.109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="15" style="99" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="63.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="63.28515625" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="46.5546875" customWidth="1"/>
+    <col min="10" max="10" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="23.45" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="66" t="s">
         <v>151</v>
       </c>
@@ -3477,13 +3526,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="19.149999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="55"/>
       <c r="B3" s="21"/>
       <c r="C3" s="56"/>
       <c r="H3" s="78">
         <f>SUM(G12:G129)</f>
-        <v>0.10416666666666657</v>
+        <v>0.35069444444444436</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -3493,13 +3542,13 @@
       <c r="C4" s="26"/>
       <c r="H4" s="79">
         <f>(INT(H3*24))+MINUTE(H3)/60</f>
-        <v>2.5</v>
+        <v>8.4166666666666661</v>
       </c>
       <c r="I4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="76" t="s">
         <v>148</v>
       </c>
@@ -3510,7 +3559,7 @@
       </c>
       <c r="I5" s="101"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="76" t="s">
         <v>149</v>
       </c>
@@ -3521,7 +3570,7 @@
       </c>
       <c r="I6" s="101"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="76" t="s">
         <v>150</v>
       </c>
@@ -3532,13 +3581,13 @@
       </c>
       <c r="I7" s="101"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="76"/>
       <c r="B8" s="73"/>
       <c r="C8" s="56"/>
       <c r="I8" s="101"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C9" s="98" t="s">
         <v>201</v>
       </c>
@@ -3547,7 +3596,7 @@
       </c>
       <c r="I9" s="101"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10" s="98" t="s">
         <v>204</v>
       </c>
@@ -3556,7 +3605,7 @@
       </c>
       <c r="I10" s="76"/>
     </row>
-    <row r="11" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="4" t="s">
         <v>0</v>
       </c>
@@ -3582,7 +3631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>42660</v>
       </c>
@@ -3597,13 +3646,13 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H12" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="21"/>
       <c r="C13" s="3">
         <v>42660</v>
@@ -3619,13 +3668,13 @@
         <v>2.4305555555555469E-2</v>
       </c>
       <c r="H13" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="I13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>42666</v>
       </c>
@@ -3640,13 +3689,13 @@
         <v>6.9444444444443088E-3</v>
       </c>
       <c r="H14" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="I14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>42666</v>
       </c>
@@ -3661,691 +3710,817 @@
         <v>5.9027777777777901E-2</v>
       </c>
       <c r="H15" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="I15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>42674</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.86458333333333337</v>
+      </c>
       <c r="G16" s="8">
         <f t="shared" ref="G16:G18" si="1">(E16-D16)-(F16/1440)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>42674</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.875</v>
+      </c>
       <c r="G17" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>297</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <v>42674</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="F18" s="99">
+        <v>25</v>
+      </c>
       <c r="G18" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+        <v>3.8194444444444357E-2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>298</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
+        <v>42674</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+        <v>2.7777777777777901E-2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>299</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <v>42674</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C21" s="3">
+        <v>42674</v>
+      </c>
+      <c r="D21" s="122">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.49652777777777773</v>
+      </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>301</v>
+      </c>
+      <c r="I21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C22" s="3">
+        <v>42675</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E22" s="5">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="F22" s="99">
+        <v>15</v>
+      </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+        <v>7.6388888888888881E-2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C23" s="3">
+        <v>42675</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.1388888888888889</v>
+      </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+        <v>2.4305555555555566E-2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>307</v>
+      </c>
+      <c r="I23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G26" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G30" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G31" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G32" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G33" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G34" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G35" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G36" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G38" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G39" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G40" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G41" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G42" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G43" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G44" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G45" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G46" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G47" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G48" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G52" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G53" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G54" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G55" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G56" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G57" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G58" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G59" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G60" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G61" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G62" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G63" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G64" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G66" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G67" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G68" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G69" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G70" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G71" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G72" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G73" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G74" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G75" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G76" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G77" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G79" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G85" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" s="8">
         <f t="shared" ref="G86:G129" si="2">(E86-D86)-(F86/1440)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G87" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G89" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G91" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G92" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G93" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G94" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G95" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G96" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G97" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G98" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G99" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G100" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G103" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G104" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G105" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G106" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G107" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G108" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G109" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G110" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G111" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G112" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G113" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G114" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G115" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G117" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G118" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G119" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G120" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G121" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G122" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G123" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G124" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G125" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G126" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G127" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G128" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G129" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4374,38 +4549,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="2.109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" style="17" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="15" style="99" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="111" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" customWidth="1"/>
-    <col min="10" max="11" width="23.44140625" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="46.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" style="110" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="11" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="46.5703125" style="116" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="66" t="s">
         <v>152</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55" t="s">
         <v>173</v>
       </c>
@@ -4414,37 +4589,37 @@
         <f>'Project Info'!D3</f>
         <v>Tic Tac Toe</v>
       </c>
-      <c r="H2" s="112" t="s">
+      <c r="H2" s="111" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21"/>
       <c r="C3" s="2"/>
-      <c r="H3" s="113">
-        <f>SUM(G12:G120)</f>
-        <v>0.13194444444444431</v>
+      <c r="H3" s="112">
+        <f>SUM(G12:G116)</f>
+        <v>3.1249999999999986E-2</v>
       </c>
       <c r="I3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="55" t="s">
         <v>174</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="95"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="114">
+      <c r="H4" s="113">
         <f>(INT(H3*24))+MINUTE(H3)/60</f>
-        <v>3.1666666666666665</v>
+        <v>0.75</v>
       </c>
       <c r="I4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
         <v>148</v>
       </c>
@@ -4453,9 +4628,9 @@
         <f>'Project Info'!D6</f>
         <v>Gabriel Stroe</v>
       </c>
-      <c r="H5" s="115"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H5" s="114"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
         <v>149</v>
       </c>
@@ -4465,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>150</v>
       </c>
@@ -4475,10 +4650,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="73"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="96" t="s">
         <v>201</v>
       </c>
@@ -4486,7 +4661,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" s="96" t="s">
         <v>204</v>
       </c>
@@ -4494,7 +4669,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -4534,41 +4709,38 @@
       <c r="N11" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="87" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="C12" s="110">
-        <v>42638</v>
+      <c r="C12" s="109">
+        <v>42674</v>
       </c>
       <c r="D12" s="5">
-        <v>0.94791666666666663</v>
+        <v>0.98958333333333337</v>
       </c>
       <c r="E12" s="5">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="F12" s="99">
-        <v>10</v>
+        <v>0.99652777777777779</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" ref="G12:G76" si="0">(E12-D12)-(F12/1440)</f>
-        <v>2.4305555555555556E-2</v>
-      </c>
-      <c r="H12" s="111" t="s">
-        <v>280</v>
+        <f t="shared" ref="G12:G72" si="0">(E12-D12)-(F12/1440)</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="H12" s="110" t="s">
+        <v>302</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
         <v>76</v>
@@ -4579,38 +4751,35 @@
       <c r="N12" t="s">
         <v>279</v>
       </c>
-      <c r="O12" s="109" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O12" s="116" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="C13" s="110">
-        <v>42639</v>
+      <c r="C13" s="109">
+        <v>42675</v>
       </c>
       <c r="D13" s="5">
-        <v>0.34722222222222227</v>
+        <v>0.11458333333333333</v>
       </c>
       <c r="E13" s="5">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="F13" s="99">
-        <v>20</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>2.7777777777777742E-2</v>
-      </c>
-      <c r="H13" s="111" t="s">
-        <v>282</v>
+        <v>2.4305555555555566E-2</v>
+      </c>
+      <c r="H13" s="110" t="s">
+        <v>305</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K13" t="s">
         <v>130</v>
@@ -4624,754 +4793,651 @@
       <c r="N13" t="s">
         <v>279</v>
       </c>
-      <c r="O13" s="109" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="110">
-        <v>42639</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.40625</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="F14" s="99">
-        <v>0</v>
-      </c>
+      <c r="O13" s="116" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>4.5138888888888895E-2</v>
-      </c>
-      <c r="H14" s="111" t="s">
-        <v>284</v>
-      </c>
-      <c r="I14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" t="s">
-        <v>248</v>
-      </c>
-      <c r="K14" t="s">
-        <v>130</v>
-      </c>
-      <c r="L14" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" t="s">
-        <v>278</v>
-      </c>
-      <c r="N14" t="s">
-        <v>279</v>
-      </c>
-      <c r="O14" s="111" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="110">
-        <v>42639</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.86805555555555547</v>
-      </c>
-      <c r="F15" s="99">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>3.4722222222222099E-2</v>
-      </c>
-      <c r="H15" s="111" t="s">
-        <v>291</v>
-      </c>
-      <c r="I15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" t="s">
-        <v>256</v>
-      </c>
-      <c r="K15" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" t="s">
-        <v>207</v>
-      </c>
-      <c r="M15" t="s">
-        <v>278</v>
-      </c>
-      <c r="N15" t="s">
-        <v>279</v>
-      </c>
-      <c r="O15" s="111" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G26" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G30" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G31" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G32" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G38" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G39" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G40" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G41" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G42" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G43" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G44" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G45" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G46" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G47" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G48" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G52" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G53" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G54" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G55" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G56" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G57" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G58" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G59" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G60" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G61" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G62" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G63" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G64" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G66" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G67" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G68" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G69" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G70" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G71" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G72" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G73" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G73:G116" si="1">(E73-D73)-(F73/1440)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G74" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G75" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G76" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G77" s="8">
-        <f t="shared" ref="G77:G120" si="1">(E77-D77)-(F77/1440)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G78" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G79" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G80" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G81" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G82" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G83" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G84" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G85" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G86" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G87" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G88" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G89" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G90" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G91" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G92" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G93" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G94" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G95" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G96" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G97" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G98" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G99" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G100" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G103" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G104" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G105" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G106" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G107" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G108" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G109" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G110" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G111" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G112" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G113" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G114" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G115" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G117" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G118" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G119" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G120" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="M12:M120">
+  <conditionalFormatting sqref="M12:M116">
     <cfRule type="containsBlanks" priority="6">
       <formula>LEN(TRIM(M12))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:N120 O12:O15">
+  <conditionalFormatting sqref="N12:N116 O12:O13">
     <cfRule type="containsBlanks" priority="1">
       <formula>LEN(TRIM(N12))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5380,15 +5446,15 @@
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Select Defect Type" prompt="Use the drop-down menu to select the Type of the Defect. This identifies the area within the Origin that is responsible for the Defect._x000a__x000a_See descriptions under &quot;Defect Types&quot; on Menu sheet." sqref="J11"/>
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Select Defect Mode" prompt="Use the drop-down menu to select the Mode of the Defect; the reason why the work product was defective or needed to be revised._x000a__x000a_See descriptions under &quot;Defect Modes&quot; on the Menu sheet." sqref="K11"/>
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Select Project Development Phase" prompt="Use the drop-down menu to select the project development phase in which the defect was discovered (and presumably removed.)_x000a__x000a_See descriptions under &quot;Project Development Phases&quot; on the Menu sheet." sqref="L11"/>
-    <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Non-standard Defect Status" error="Rather than entering free-form text, consider modifying the possible values in the pull-down menu." promptTitle="Indicate current Defect Status" prompt="Use the pull-down menu to indicate whether the Defect Status is Open (not yet resolved) or Closed (resolution is complete: The root cause has been determined and the condition has been corrected.)" sqref="M12:M120">
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Indicate current Defect Status" prompt="Use the pull-down menu to indicate whether the Defect Status is Open (not yet resolved) or Closed (resolution is complete: The root cause has been determined and the condition has been corrected.)" sqref="M11"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Identify a &quot;Change Defect&quot;" prompt="Use the pull-down menu to indicate if this was a &quot;Change Defect&quot; that was introduced in the process of resolving a different defect.  If so, indicate &quot;Yes&quot; or &quot;X&quot;._x000a__x000a_If this is NOT a Change Defect, indicate &quot;No&quot; or just leave the field blank." sqref="N11"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Defect ID #" prompt="Give each Defect a unique identification number [1, 2, 3, ...] so that they may be referenced by number in any subsequent analyses. " sqref="A11"/>
+    <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Non-standard Defect Status" error="Rather than entering free-form text, consider modifying the possible values in the pull-down menu." promptTitle="Indicate current Defect Status" prompt="Use the pull-down menu to indicate whether the Defect Status is Open (not yet resolved) or Closed (resolution is complete: The root cause has been determined and the condition has been corrected.)" sqref="M12:M116">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Indicate current Defect Status" prompt="Use the pull-down menu to indicate whether the Defect Status is Open (not yet resolved) or Closed (resolution is complete: The root cause has been determined and the condition has been corrected.)" sqref="M11"/>
-    <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Standard Change Defect status" error="The &quot;Change Defect&quot; field should either be &quot;Yes&quot; or &quot;No&quot; (or alternatively &quot;X&quot; indicating &quot;Yes&quot; and Blank for &quot;No.&quot;)" promptTitle="Identify a &quot;Change Defect&quot;" prompt="Use the pull-down menu to indicate if this was a &quot;Change Defect&quot; that was introduced in the process of resolving a different defect.  If so, indicate &quot;Yes&quot; or &quot;X&quot;._x000a__x000a_If this is NOT a Change Defect, indicate &quot;No&quot; or just leave the field blank." sqref="N12:N120">
+    <dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Standard Change Defect status" error="The &quot;Change Defect&quot; field should either be &quot;Yes&quot; or &quot;No&quot; (or alternatively &quot;X&quot; indicating &quot;Yes&quot; and Blank for &quot;No.&quot;)" promptTitle="Identify a &quot;Change Defect&quot;" prompt="Use the pull-down menu to indicate if this was a &quot;Change Defect&quot; that was introduced in the process of resolving a different defect.  If so, indicate &quot;Yes&quot; or &quot;X&quot;._x000a__x000a_If this is NOT a Change Defect, indicate &quot;No&quot; or just leave the field blank." sqref="N12:N116">
       <formula1>"No,Yes,X"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Identify a &quot;Change Defect&quot;" prompt="Use the pull-down menu to indicate if this was a &quot;Change Defect&quot; that was introduced in the process of resolving a different defect.  If so, indicate &quot;Yes&quot; or &quot;X&quot;._x000a__x000a_If this is NOT a Change Defect, indicate &quot;No&quot; or just leave the field blank." sqref="N11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Defect ID #" prompt="Give each Defect a unique identification number [1, 2, 3, ...] so that they may be referenced by number in any subsequent analyses. " sqref="A11"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5399,25 +5465,25 @@
           <x14:formula1>
             <xm:f>Menu!$C$35:$C$47</xm:f>
           </x14:formula1>
-          <xm:sqref>I12:I120</xm:sqref>
+          <xm:sqref>I12:I116</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Standard Defect Modes" error="Rather than entering free-form text, consider revising the &quot;Defect Modes&quot; list on the &quot;Menu&quot; sheet." promptTitle="Select Defect Mode" prompt="Use the drop-down menu to select the Mode of the Defect; the reason why the work product was defective or needed to be revised._x000a__x000a_See descriptions under &quot;Defect Modes&quot; on the Menu sheet.">
           <x14:formula1>
             <xm:f>Menu!$C$109:$C$119</xm:f>
           </x14:formula1>
-          <xm:sqref>K12:K120</xm:sqref>
+          <xm:sqref>K12:K116</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" showErrorMessage="1" errorTitle="Standard Development Phases" error="Rather than entering free-form text, consider revising the &quot;Project Development Phases&quot; list on the &quot;Menu&quot; sheet." promptTitle="Select Project Development Phase" prompt="Use the drop-down menu to select the project development phase in which the defect was discovered (and presumably removed.)_x000a__x000a_See descriptions under &quot;Project Development Phases&quot; on the Menu sheet.">
           <x14:formula1>
             <xm:f>Menu!$C$11:$C$28</xm:f>
           </x14:formula1>
-          <xm:sqref>L12:L120</xm:sqref>
+          <xm:sqref>L12:L116</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Standard Defect Types" error="Rather than entering free-form text, consider revising &quot;Defect Types&quot; lists on the &quot;Menu&quot; sheet._x000a__x000a_Changing Defect Types MAY also require change to Data Validation source for this cell and/or change to Named group on &quot;Menu.&quot;" promptTitle="Select Defect Type" prompt="Use the drop-down menu to select the Type of the Defect. This identifies the area within the Origin that is responsible for the Defect.  There is a different list of Defect Types for each Defect Origin._x000a_See descriptions under &quot;Defect Types&quot; on Menu sheet.">
           <x14:formula1>
             <xm:f>Menu!$C$52:$C$105</xm:f>
           </x14:formula1>
-          <xm:sqref>J12:J120</xm:sqref>
+          <xm:sqref>J12:J116</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5434,17 +5500,17 @@
       <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="17" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="17"/>
-    <col min="6" max="6" width="101.109375" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="17"/>
+    <col min="1" max="1" width="12.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="17" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="17"/>
+    <col min="6" max="6" width="101.140625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
@@ -5452,7 +5518,7 @@
         <v>41047</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
@@ -5460,7 +5526,7 @@
         <v>41704</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
@@ -5468,22 +5534,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>78</v>
       </c>
@@ -5491,7 +5557,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="21" t="s">
         <v>80</v>
       </c>
@@ -5505,7 +5571,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>81</v>
       </c>
@@ -5517,7 +5583,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>84</v>
       </c>
@@ -5531,7 +5597,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C13" s="24" t="s">
         <v>59</v>
       </c>
@@ -5539,7 +5605,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C14" s="24" t="s">
         <v>61</v>
       </c>
@@ -5547,7 +5613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C15" s="24" t="s">
         <v>50</v>
       </c>
@@ -5555,7 +5621,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" s="24" t="s">
         <v>65</v>
       </c>
@@ -5563,7 +5629,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C17" s="24" t="s">
         <v>209</v>
       </c>
@@ -5571,7 +5637,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C18" s="24" t="s">
         <v>51</v>
       </c>
@@ -5579,7 +5645,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C19" s="24" t="s">
         <v>67</v>
       </c>
@@ -5587,7 +5653,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C20" s="24" t="s">
         <v>52</v>
       </c>
@@ -5595,7 +5661,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C21" s="24" t="s">
         <v>71</v>
       </c>
@@ -5603,7 +5669,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C22" s="24" t="s">
         <v>73</v>
       </c>
@@ -5611,7 +5677,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C23" s="24" t="s">
         <v>74</v>
       </c>
@@ -5619,7 +5685,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C24" s="24" t="s">
         <v>75</v>
       </c>
@@ -5627,7 +5693,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C25" s="24" t="s">
         <v>76</v>
       </c>
@@ -5635,7 +5701,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C26" s="24" t="s">
         <v>216</v>
       </c>
@@ -5643,7 +5709,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C27" s="24" t="s">
         <v>207</v>
       </c>
@@ -5651,15 +5717,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="25"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="21" t="s">
         <v>80</v>
       </c>
@@ -5673,7 +5739,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>84</v>
       </c>
@@ -5685,7 +5751,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C36" s="40" t="s">
         <v>88</v>
       </c>
@@ -5693,7 +5759,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C37" s="36" t="s">
         <v>124</v>
       </c>
@@ -5701,7 +5767,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C38" s="37" t="s">
         <v>50</v>
       </c>
@@ -5709,7 +5775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C39" s="38" t="s">
         <v>51</v>
       </c>
@@ -5717,7 +5783,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C40" s="39" t="s">
         <v>52</v>
       </c>
@@ -5725,7 +5791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
         <v>96</v>
       </c>
@@ -5733,7 +5799,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
         <v>125</v>
       </c>
@@ -5741,7 +5807,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="s">
         <v>53</v>
       </c>
@@ -5749,7 +5815,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C44" s="19" t="s">
         <v>54</v>
       </c>
@@ -5757,16 +5823,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C45" s="24"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C46" s="24"/>
     </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C47" s="25"/>
     </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
       <c r="B50" s="21" t="s">
         <v>80</v>
       </c>
@@ -5780,7 +5846,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B51" s="21"/>
       <c r="C51" s="22" t="s">
         <v>116</v>
@@ -5788,7 +5854,7 @@
       <c r="D51" s="22"/>
       <c r="F51" s="28"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>84</v>
       </c>
@@ -5800,7 +5866,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B53" s="30" t="s">
         <v>137</v>
       </c>
@@ -5811,7 +5877,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C54" s="107" t="s">
         <v>230</v>
       </c>
@@ -5819,7 +5885,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C55" s="107" t="s">
         <v>231</v>
       </c>
@@ -5827,7 +5893,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C56" s="107" t="s">
         <v>232</v>
       </c>
@@ -5835,7 +5901,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C57" s="107" t="s">
         <v>233</v>
       </c>
@@ -5843,7 +5909,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C58" s="107" t="s">
         <v>234</v>
       </c>
@@ -5851,7 +5917,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C59" s="107" t="s">
         <v>235</v>
       </c>
@@ -5859,7 +5925,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B60" s="31" t="s">
         <v>138</v>
       </c>
@@ -5870,7 +5936,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C61" s="43" t="s">
         <v>237</v>
       </c>
@@ -5878,7 +5944,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B62" s="32"/>
       <c r="C62" s="43" t="s">
         <v>238</v>
@@ -5887,7 +5953,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B63" s="32"/>
       <c r="C63" s="43" t="s">
         <v>239</v>
@@ -5896,7 +5962,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B64" s="32"/>
       <c r="C64" s="108" t="s">
         <v>240</v>
@@ -5905,7 +5971,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B65" s="32"/>
       <c r="C65" s="43" t="s">
         <v>241</v>
@@ -5914,7 +5980,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B66" s="32"/>
       <c r="C66" s="43" t="s">
         <v>242</v>
@@ -5923,7 +5989,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B67" s="33" t="s">
         <v>129</v>
       </c>
@@ -5934,7 +6000,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B68" s="32"/>
       <c r="C68" s="106" t="s">
         <v>244</v>
@@ -5943,7 +6009,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B69" s="32"/>
       <c r="C69" s="106" t="s">
         <v>245</v>
@@ -5952,7 +6018,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B70" s="32"/>
       <c r="C70" s="106" t="s">
         <v>246</v>
@@ -5961,7 +6027,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C71" s="44" t="s">
         <v>247</v>
       </c>
@@ -5969,7 +6035,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B72" s="32"/>
       <c r="C72" s="44" t="s">
         <v>248</v>
@@ -5978,7 +6044,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B73" s="32"/>
       <c r="C73" s="44" t="s">
         <v>249</v>
@@ -5987,7 +6053,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B74" s="34" t="s">
         <v>139</v>
       </c>
@@ -5996,31 +6062,31 @@
       </c>
       <c r="D74" s="29"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C75" s="45" t="s">
         <v>251</v>
       </c>
       <c r="D75" s="29"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C76" s="45" t="s">
         <v>252</v>
       </c>
       <c r="D76" s="29"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C77" s="45" t="s">
         <v>253</v>
       </c>
       <c r="D77" s="29"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C78" s="45" t="s">
         <v>254</v>
       </c>
       <c r="D78" s="29"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C79" s="45" t="s">
         <v>255</v>
       </c>
@@ -6028,7 +6094,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B80" s="35" t="s">
         <v>140</v>
       </c>
@@ -6037,19 +6103,19 @@
       </c>
       <c r="D80" s="29"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C81" s="46" t="s">
         <v>257</v>
       </c>
       <c r="D81" s="29"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C82" s="46" t="s">
         <v>258</v>
       </c>
       <c r="D82" s="29"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C83" s="46" t="s">
         <v>259</v>
       </c>
@@ -6057,7 +6123,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C84" s="46" t="s">
         <v>260</v>
       </c>
@@ -6065,25 +6131,25 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C85" s="46" t="s">
         <v>261</v>
       </c>
       <c r="D85" s="29"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C86" s="46" t="s">
         <v>262</v>
       </c>
       <c r="D86" s="29"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C87" s="46" t="s">
         <v>263</v>
       </c>
       <c r="D87" s="29"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C88" s="46" t="s">
         <v>264</v>
       </c>
@@ -6091,7 +6157,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B89" s="41" t="s">
         <v>141</v>
       </c>
@@ -6100,19 +6166,19 @@
       </c>
       <c r="D89" s="29"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C90" s="47" t="s">
         <v>266</v>
       </c>
       <c r="D90" s="29"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C91" s="47" t="s">
         <v>267</v>
       </c>
       <c r="D91" s="29"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C92" s="47" t="s">
         <v>268</v>
       </c>
@@ -6120,13 +6186,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C93" s="47" t="s">
         <v>269</v>
       </c>
       <c r="D93" s="29"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B94" s="50" t="s">
         <v>142</v>
       </c>
@@ -6135,37 +6201,37 @@
       </c>
       <c r="D94" s="29"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C95" s="49" t="s">
         <v>271</v>
       </c>
       <c r="D95" s="29"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C96" s="49" t="s">
         <v>272</v>
       </c>
       <c r="D96" s="29"/>
     </row>
-    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
       <c r="C97" s="49" t="s">
         <v>273</v>
       </c>
       <c r="D97" s="29"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C98" s="49" t="s">
         <v>274</v>
       </c>
       <c r="D98" s="29"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C99" s="49" t="s">
         <v>275</v>
       </c>
       <c r="D99" s="29"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B100" s="51" t="s">
         <v>143</v>
       </c>
@@ -6174,7 +6240,7 @@
       </c>
       <c r="D100" s="32"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B101" s="29" t="s">
         <v>144</v>
       </c>
@@ -6183,19 +6249,19 @@
       </c>
       <c r="D101" s="32"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C102" s="52" t="s">
         <v>135</v>
       </c>
       <c r="D102" s="32"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C103" s="52" t="s">
         <v>136</v>
       </c>
       <c r="D103" s="32"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" s="52" t="s">
         <v>133</v>
       </c>
@@ -6203,7 +6269,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B105" s="54" t="s">
         <v>145</v>
       </c>
@@ -6212,7 +6278,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="21" t="s">
         <v>80</v>
       </c>
@@ -6226,7 +6292,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>84</v>
       </c>
@@ -6238,7 +6304,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C110" s="27" t="s">
         <v>45</v>
       </c>
@@ -6246,7 +6312,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C111" s="27" t="s">
         <v>48</v>
       </c>
@@ -6254,7 +6320,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C112" s="27" t="s">
         <v>130</v>
       </c>
@@ -6262,7 +6328,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="27" t="s">
         <v>46</v>
       </c>
@@ -6270,7 +6336,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="27" t="s">
         <v>49</v>
       </c>
@@ -6278,7 +6344,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="27" t="s">
         <v>47</v>
       </c>
@@ -6286,7 +6352,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="19" t="s">
         <v>54</v>
       </c>
@@ -6294,13 +6360,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="27"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="24"/>
     </row>
-    <row r="119" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C119" s="25"/>
     </row>
   </sheetData>
@@ -6316,13 +6382,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -6330,7 +6396,7 @@
         <v>41046</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -6338,7 +6404,7 @@
         <v>41046</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -6346,13 +6412,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" s="117" t="s">
         <v>14</v>
       </c>
@@ -6371,7 +6437,7 @@
       <c r="O6" s="117"/>
       <c r="P6" s="117"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" s="117" t="s">
         <v>15</v>
       </c>
@@ -6390,7 +6456,7 @@
       <c r="O7" s="117"/>
       <c r="P7" s="117"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -6398,7 +6464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="117" t="s">
         <v>31</v>
       </c>
@@ -6417,8 +6483,8 @@
       <c r="O10" s="117"/>
       <c r="P10" s="117"/>
     </row>
-    <row r="11" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="121" t="s">
+    <row r="11" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="118" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="117"/>
@@ -6430,7 +6496,7 @@
       <c r="J11" s="117"/>
       <c r="K11" s="117"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="117" t="s">
         <v>26</v>
       </c>
@@ -6449,12 +6515,12 @@
       <c r="O12" s="117"/>
       <c r="P12" s="117"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="117" t="s">
         <v>28</v>
       </c>
@@ -6472,8 +6538,8 @@
       <c r="N14" s="117"/>
       <c r="O14" s="117"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="118" t="s">
+    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C15" s="119" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="117"/>
@@ -6486,7 +6552,7 @@
       <c r="K15" s="117"/>
       <c r="L15" s="117"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -6498,7 +6564,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -6513,9 +6579,9 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="121" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="117"/>
@@ -6531,10 +6597,10 @@
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="120" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="117"/>
@@ -6549,9 +6615,9 @@
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
-      <c r="C20" s="119" t="s">
+      <c r="C20" s="120" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="117"/>
@@ -6567,7 +6633,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="117" t="s">
@@ -6585,7 +6651,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="117" t="s">
@@ -6603,7 +6669,7 @@
       <c r="N22" s="117"/>
       <c r="O22" s="13"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="117" t="s">
@@ -6623,7 +6689,7 @@
       <c r="P23" s="117"/>
       <c r="Q23" s="117"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="117" t="s">
@@ -6643,7 +6709,7 @@
       <c r="P24" s="117"/>
       <c r="Q24" s="117"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="117" t="s">
@@ -6663,9 +6729,9 @@
       <c r="P25" s="117"/>
       <c r="Q25" s="117"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="120" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="117"/>
@@ -6681,7 +6747,7 @@
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="117" t="s">
@@ -6699,7 +6765,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -6715,18 +6781,18 @@
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C32" s="118" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C32" s="119" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="117"/>
@@ -6741,7 +6807,7 @@
       <c r="M32" s="117"/>
       <c r="N32" s="117"/>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="117" t="s">
         <v>22</v>
       </c>
@@ -6757,8 +6823,8 @@
       <c r="M34" s="117"/>
       <c r="N34" s="117"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C35" s="118" t="s">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="119" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="117"/>
@@ -6773,7 +6839,7 @@
       <c r="M35" s="117"/>
       <c r="N35" s="117"/>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" s="117" t="s">
         <v>24</v>
       </c>
@@ -6789,8 +6855,8 @@
       <c r="M37" s="117"/>
       <c r="N37" s="117"/>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C38" s="118" t="s">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="119" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="117"/>
@@ -6807,12 +6873,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="B7:P7"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B12:P12"/>
     <mergeCell ref="C34:N34"/>
     <mergeCell ref="C35:N35"/>
     <mergeCell ref="C37:N37"/>
@@ -6829,6 +6889,12 @@
     <mergeCell ref="D22:N22"/>
     <mergeCell ref="D23:Q23"/>
     <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B12:P12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>
@@ -6852,16 +6918,16 @@
       <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="17"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="11" style="16" customWidth="1"/>
     <col min="3" max="3" width="18" style="17" customWidth="1"/>
-    <col min="4" max="4" width="90.109375" style="17" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="17"/>
+    <col min="4" max="4" width="90.140625" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
@@ -6883,7 +6949,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>41046</v>
       </c>
@@ -6894,7 +6960,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="100.9" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>41047</v>
       </c>
@@ -6905,7 +6971,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="28.9" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>41049</v>
       </c>
@@ -6916,7 +6982,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>41132</v>
       </c>
@@ -6927,12 +6993,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="43.15" x14ac:dyDescent="0.3">
       <c r="D8" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="28.9" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>41318</v>
       </c>
@@ -6943,7 +7009,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="2:4" s="82" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" s="82" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="105">
         <v>41672</v>
       </c>
@@ -6954,12 +7020,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D11" s="17" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" ht="28.9" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>41704</v>
       </c>
@@ -6970,12 +7036,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" s="17" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>42638</v>
       </c>
@@ -6983,15 +7049,15 @@
         <v>277</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D17" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <v>42638</v>
       </c>
@@ -6999,10 +7065,10 @@
         <v>277</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
         <v>42639</v>
       </c>
@@ -7010,10 +7076,10 @@
         <v>277</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
         <v>42639</v>
       </c>
@@ -7021,10 +7087,10 @@
         <v>277</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="1000" spans="2:2" x14ac:dyDescent="0.3"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1000" spans="2:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SE/Project 3/Project Log.xlsx
+++ b/SE/Project 3/Project Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Info" sheetId="7" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="322">
   <si>
     <t>Date:</t>
   </si>
@@ -1545,6 +1545,48 @@
   </si>
   <si>
     <t>Test 2 Player Game</t>
+  </si>
+  <si>
+    <t>Design UI for the Victory/Defeat Screen.</t>
+  </si>
+  <si>
+    <t>Detail Fuctional Design for the Victory/Defeat Screen</t>
+  </si>
+  <si>
+    <t>Code the Victory Screen</t>
+  </si>
+  <si>
+    <t>Functional test for the victory/defeat Screen</t>
+  </si>
+  <si>
+    <t>Victory/Defeat Screen</t>
+  </si>
+  <si>
+    <t>The Array that stored the values that are being placed where worknig correctly but forgot to change visual values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Players whould not change symbols like they should. </t>
+  </si>
+  <si>
+    <t>Detail Design for one Player mode</t>
+  </si>
+  <si>
+    <t>Code 1 Player Mode</t>
+  </si>
+  <si>
+    <t>Test One Player Mode</t>
+  </si>
+  <si>
+    <t>AI Detain Design</t>
+  </si>
+  <si>
+    <t>Wow that took a long time will finish integration testing and the report before coding AI since it is optional</t>
+  </si>
+  <si>
+    <t>Integration testing</t>
+  </si>
+  <si>
+    <t>Write up and Retrospective Analysis</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2088,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2341,7 +2383,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent2" xfId="6" builtinId="34"/>
@@ -2352,49 +2393,7 @@
     <cellStyle name="Title" xfId="2" builtinId="15"/>
     <cellStyle name="Total" xfId="5" builtinId="25"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -2809,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,9 +3485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3532,7 +3531,7 @@
       <c r="C3" s="56"/>
       <c r="H3" s="78">
         <f>SUM(G12:G129)</f>
-        <v>0.35069444444444436</v>
+        <v>0.64236111111111105</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -3542,7 +3541,7 @@
       <c r="C4" s="26"/>
       <c r="H4" s="79">
         <f>(INT(H3*24))+MINUTE(H3)/60</f>
-        <v>8.4166666666666661</v>
+        <v>15.416666666666666</v>
       </c>
       <c r="I4" t="s">
         <v>177</v>
@@ -3737,7 +3736,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>42674</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>42674</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>42674</v>
       </c>
@@ -3803,7 +3802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>42674</v>
       </c>
@@ -3824,15 +3823,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>42674</v>
       </c>
-      <c r="D21" s="122">
-        <v>0.48958333333333331</v>
+      <c r="D21" s="5">
+        <v>0.98958333333333337</v>
       </c>
       <c r="E21" s="5">
-        <v>0.49652777777777773</v>
+        <v>0.99652777777777779</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
@@ -3845,7 +3844,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>42675</v>
       </c>
@@ -3869,7 +3868,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>42675</v>
       </c>
@@ -3890,151 +3889,310 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C24" s="3">
+        <v>42675</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="F24" s="99">
+        <v>15</v>
+      </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+        <v>1.0416666666666704E-2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>308</v>
+      </c>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C25" s="3">
+        <v>42675</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.67013888888888884</v>
+      </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>309</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C26" s="3">
+        <v>42675</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.6875</v>
+      </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>310</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C27" s="3">
+        <v>42675</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>311</v>
+      </c>
+      <c r="I27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C28" s="3">
+        <v>42675</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>315</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C29" s="3">
+        <v>42675</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.90277777777777779</v>
+      </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>316</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C30" s="3">
+        <v>42675</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.90625</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>317</v>
+      </c>
+      <c r="I30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C31" s="3">
+        <v>42675</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.0729166666666667</v>
+      </c>
+      <c r="F31" s="99">
+        <v>30</v>
+      </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="H31" t="s">
+        <v>318</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C32" s="3">
+        <v>42676</v>
+      </c>
+      <c r="D32" s="5">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="E32" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+        <v>1.0416666666666657E-2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>320</v>
+      </c>
+      <c r="I32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C33" s="3">
+        <v>42676</v>
+      </c>
+      <c r="D33" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="G33" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+        <v>6.2500000000000014E-2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>321</v>
+      </c>
+      <c r="I33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G34" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G35" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G36" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G37" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G38" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G39" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G40" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G41" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G42" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G43" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G44" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G45" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G46" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G47" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G48" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4551,9 +4709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4598,7 +4756,7 @@
       <c r="C3" s="2"/>
       <c r="H3" s="112">
         <f>SUM(G12:G116)</f>
-        <v>3.1249999999999986E-2</v>
+        <v>3.8194444444444406E-2</v>
       </c>
       <c r="I3" t="s">
         <v>177</v>
@@ -4613,7 +4771,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="113">
         <f>(INT(H3*24))+MINUTE(H3)/60</f>
-        <v>0.75</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I4" t="s">
         <v>177</v>
@@ -4797,16 +4955,88 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="109">
+        <v>42675</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.69097222222222221</v>
+      </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="H14" s="110" t="s">
+        <v>312</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>256</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" t="s">
+        <v>278</v>
+      </c>
+      <c r="N14" t="s">
+        <v>279</v>
+      </c>
+      <c r="O14" s="116" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="109">
+        <v>42675</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.19791666666666666</v>
+      </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="H15" s="116" t="s">
+        <v>312</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>256</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" t="s">
+        <v>278</v>
+      </c>
+      <c r="N15" t="s">
+        <v>279</v>
+      </c>
+      <c r="O15" s="116" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -5420,10 +5650,10 @@
     <cfRule type="containsBlanks" priority="6">
       <formula>LEN(TRIM(M12))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5431,13 +5661,13 @@
     <cfRule type="containsBlanks" priority="1">
       <formula>LEN(TRIM(N12))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SE/Project 3/Project Log.xlsx
+++ b/SE/Project 3/Project Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project Info" sheetId="7" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="329">
   <si>
     <t>Date:</t>
   </si>
@@ -1587,6 +1587,27 @@
   </si>
   <si>
     <t>Write up and Retrospective Analysis</t>
+  </si>
+  <si>
+    <t>Code AI Module</t>
+  </si>
+  <si>
+    <t>Redesign Logic</t>
+  </si>
+  <si>
+    <t>Finish AI code</t>
+  </si>
+  <si>
+    <t>Functional test for AI</t>
+  </si>
+  <si>
+    <t>Update Analysis</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>I had relised while coding that by always checking if the AI good win this turn or if the opponent would win the next turn and block them. If theis was performed before the path logic it would greatly simplify each path logic.</t>
   </si>
 </sst>
 </file>
@@ -2808,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3485,9 +3506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3531,7 +3552,7 @@
       <c r="C3" s="56"/>
       <c r="H3" s="78">
         <f>SUM(G12:G129)</f>
-        <v>0.64236111111111105</v>
+        <v>0.85416666666666652</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -3541,7 +3562,7 @@
       <c r="C4" s="26"/>
       <c r="H4" s="79">
         <f>(INT(H3*24))+MINUTE(H3)/60</f>
-        <v>15.416666666666666</v>
+        <v>20.5</v>
       </c>
       <c r="I4" t="s">
         <v>177</v>
@@ -4109,33 +4130,117 @@
       </c>
     </row>
     <row r="34" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C34" s="3">
+        <v>42676</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="F34" s="99">
+        <v>15</v>
+      </c>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>322</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C35" s="3">
+        <v>42676</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="G35" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>323</v>
+      </c>
+      <c r="I35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="3:9" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C36" s="3">
+        <v>42676</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F36" s="99">
+        <v>30</v>
+      </c>
       <c r="G36" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>324</v>
+      </c>
+      <c r="I36" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="3">
+        <v>42676</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="G37" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>325</v>
+      </c>
+      <c r="I37" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="3">
+        <v>42676</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="99">
+        <v>10</v>
+      </c>
       <c r="G38" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222182E-2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>326</v>
+      </c>
+      <c r="I38" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
@@ -4709,9 +4814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4756,7 +4861,7 @@
       <c r="C3" s="2"/>
       <c r="H3" s="112">
         <f>SUM(G12:G116)</f>
-        <v>3.8194444444444406E-2</v>
+        <v>7.9861111111111036E-2</v>
       </c>
       <c r="I3" t="s">
         <v>177</v>
@@ -4771,7 +4876,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="113">
         <f>(INT(H3*24))+MINUTE(H3)/60</f>
-        <v>0.91666666666666663</v>
+        <v>1.9166666666666665</v>
       </c>
       <c r="I4" t="s">
         <v>177</v>
@@ -5039,10 +5144,43 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="C16" s="109">
+        <v>42676</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H16" s="110" t="s">
+        <v>327</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" t="s">
+        <v>251</v>
+      </c>
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" t="s">
+        <v>278</v>
+      </c>
+      <c r="N16" t="s">
+        <v>279</v>
+      </c>
+      <c r="O16" s="116" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
